--- a/sqlserver.xlsx
+++ b/sqlserver.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8355" activeTab="1"/>
+    <workbookView xWindow="5820" windowWidth="9210" windowHeight="3840"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -1858,8 +1858,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -1886,9 +1886,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1904,13 +1919,35 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -1926,39 +1963,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1974,12 +1994,13 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -1988,31 +2009,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2025,19 +2025,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2055,7 +2055,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2067,31 +2127,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2103,7 +2157,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2115,67 +2187,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2187,25 +2205,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2216,6 +2216,65 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2257,77 +2316,18 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2342,127 +2342,127 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2797,12 +2797,12 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:Q547"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C408" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C87" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K457" sqref="K457"/>
+      <selection pane="bottomRight" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -2861,7 +2861,6 @@
       <c r="K2" t="s">
         <v>14</v>
       </c>
-      <c r="L2"/>
       <c r="Q2">
         <v>10</v>
       </c>
@@ -3943,7 +3942,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="87" hidden="1" spans="1:10">
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="s">
         <v>100</v>
       </c>
@@ -4027,7 +4026,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="93" hidden="1" spans="1:10">
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="s">
         <v>107</v>
       </c>
@@ -5080,7 +5079,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="171" hidden="1" spans="1:10">
+    <row r="171" spans="1:10">
       <c r="A171" s="1" t="s">
         <v>186</v>
       </c>
@@ -5165,7 +5164,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="176" hidden="1" spans="1:10">
+    <row r="176" spans="1:10">
       <c r="A176" s="1" t="s">
         <v>192</v>
       </c>
@@ -5781,7 +5780,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="220" hidden="1" spans="1:10">
+    <row r="220" spans="1:10">
       <c r="A220" s="1" t="s">
         <v>239</v>
       </c>
@@ -5795,7 +5794,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="221" hidden="1" spans="1:10">
+    <row r="221" spans="1:10">
       <c r="A221" s="1" t="s">
         <v>243</v>
       </c>
@@ -5809,7 +5808,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="222" hidden="1" spans="1:10">
+    <row r="222" spans="1:10">
       <c r="A222" s="1" t="s">
         <v>244</v>
       </c>
@@ -5823,7 +5822,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="223" hidden="1" spans="1:10">
+    <row r="223" spans="1:10">
       <c r="A223" s="1" t="s">
         <v>245</v>
       </c>
@@ -6012,7 +6011,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="238" hidden="1" spans="1:10">
+    <row r="238" spans="1:10">
       <c r="A238" s="1" t="s">
         <v>260</v>
       </c>
@@ -7925,7 +7924,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="398" spans="1:10">
+    <row r="398" hidden="1" spans="1:10">
       <c r="A398" s="1" t="s">
         <v>423</v>
       </c>
@@ -7939,7 +7938,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="399" spans="1:10">
+    <row r="399" hidden="1" spans="1:10">
       <c r="A399" s="1" t="s">
         <v>425</v>
       </c>
@@ -7981,7 +7980,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="402" spans="1:10">
+    <row r="402" hidden="1" spans="1:10">
       <c r="A402" s="1" t="s">
         <v>428</v>
       </c>
@@ -8023,7 +8022,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="405" spans="1:10">
+    <row r="405" hidden="1" spans="1:10">
       <c r="A405" s="1" t="s">
         <v>432</v>
       </c>
@@ -8051,7 +8050,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="407" spans="1:10">
+    <row r="407" hidden="1" spans="1:10">
       <c r="A407" s="1" t="s">
         <v>434</v>
       </c>
@@ -8065,7 +8064,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="408" spans="1:10">
+    <row r="408" hidden="1" spans="1:10">
       <c r="A408" s="1" t="s">
         <v>435</v>
       </c>
@@ -8104,7 +8103,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="411" spans="1:10">
+    <row r="411" hidden="1" spans="1:10">
       <c r="A411" s="1" t="s">
         <v>438</v>
       </c>
@@ -8118,7 +8117,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="412" spans="1:10">
+    <row r="412" hidden="1" spans="1:10">
       <c r="A412" s="1" t="s">
         <v>439</v>
       </c>
@@ -8157,7 +8156,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="415" spans="1:10">
+    <row r="415" hidden="1" spans="1:10">
       <c r="A415" s="1" t="s">
         <v>442</v>
       </c>
@@ -8171,7 +8170,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="416" spans="1:10">
+    <row r="416" hidden="1" spans="1:10">
       <c r="A416" s="1" t="s">
         <v>443</v>
       </c>
@@ -8213,7 +8212,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="419" spans="1:10">
+    <row r="419" hidden="1" spans="1:10">
       <c r="A419" s="1" t="s">
         <v>446</v>
       </c>
@@ -8266,7 +8265,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="423" spans="1:10">
+    <row r="423" hidden="1" spans="1:10">
       <c r="A423" s="1" t="s">
         <v>450</v>
       </c>
@@ -8294,7 +8293,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="425" spans="1:10">
+    <row r="425" hidden="1" spans="1:10">
       <c r="A425" s="1" t="s">
         <v>453</v>
       </c>
@@ -8308,7 +8307,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="426" spans="1:10">
+    <row r="426" hidden="1" spans="1:10">
       <c r="A426" s="1" t="s">
         <v>454</v>
       </c>
@@ -8453,7 +8452,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="437" spans="1:10">
+    <row r="437" hidden="1" spans="1:10">
       <c r="A437" s="1" t="s">
         <v>465</v>
       </c>
@@ -8467,7 +8466,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="438" spans="1:10">
+    <row r="438" hidden="1" spans="1:10">
       <c r="A438" s="1" t="s">
         <v>466</v>
       </c>
@@ -8481,7 +8480,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="439" spans="1:10">
+    <row r="439" hidden="1" spans="1:10">
       <c r="A439" s="1" t="s">
         <v>467</v>
       </c>
@@ -8517,7 +8516,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="442" spans="1:10">
+    <row r="442" hidden="1" spans="1:10">
       <c r="A442" s="1" t="s">
         <v>470</v>
       </c>
@@ -8531,7 +8530,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="443" spans="1:10">
+    <row r="443" hidden="1" spans="1:10">
       <c r="A443" s="1" t="s">
         <v>471</v>
       </c>
@@ -8573,7 +8572,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="446" spans="1:10">
+    <row r="446" hidden="1" spans="1:10">
       <c r="A446" s="1" t="s">
         <v>475</v>
       </c>
@@ -8587,7 +8586,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="447" spans="1:10">
+    <row r="447" hidden="1" spans="1:10">
       <c r="A447" s="1" t="s">
         <v>476</v>
       </c>
@@ -8671,7 +8670,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="453" spans="1:10">
+    <row r="453" hidden="1" spans="1:10">
       <c r="A453" s="1" t="s">
         <v>482</v>
       </c>
@@ -8727,7 +8726,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="457" spans="1:10">
+    <row r="457" hidden="1" spans="1:10">
       <c r="A457" s="1" t="s">
         <v>486</v>
       </c>
@@ -8741,7 +8740,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="458" spans="1:10">
+    <row r="458" hidden="1" spans="1:10">
       <c r="A458" s="1" t="s">
         <v>487</v>
       </c>
@@ -8802,7 +8801,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="463" spans="1:10">
+    <row r="463" hidden="1" spans="1:10">
       <c r="A463" s="1" t="s">
         <v>492</v>
       </c>
@@ -8885,7 +8884,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="470" spans="1:10">
+    <row r="470" hidden="1" spans="1:10">
       <c r="A470" s="1" t="s">
         <v>499</v>
       </c>
@@ -8899,7 +8898,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="471" spans="1:10">
+    <row r="471" hidden="1" spans="1:10">
       <c r="A471" s="1" t="s">
         <v>501</v>
       </c>
@@ -8913,7 +8912,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="472" spans="1:10">
+    <row r="472" hidden="1" spans="1:10">
       <c r="A472" s="1" t="s">
         <v>502</v>
       </c>
@@ -8927,7 +8926,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="473" spans="1:10">
+    <row r="473" hidden="1" spans="1:10">
       <c r="A473" s="1" t="s">
         <v>503</v>
       </c>
@@ -9872,7 +9871,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="545" spans="1:10">
+    <row r="545" hidden="1" spans="1:10">
       <c r="A545" s="1" t="s">
         <v>575</v>
       </c>
@@ -9886,7 +9885,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="546" spans="1:10">
+    <row r="546" hidden="1" spans="1:10">
       <c r="A546" s="1" t="s">
         <v>576</v>
       </c>
@@ -9915,26 +9914,15 @@
   <autoFilter ref="A1:K547">
     <filterColumn colId="1">
       <customFilters>
-        <customFilter operator="equal" val="StoredProcedure"/>
+        <customFilter operator="equal" val="UserDefinedFunction"/>
+        <customFilter operator="equal" val="View"/>
       </customFilters>
     </filterColumn>
     <filterColumn colId="2">
-      <filters>
-        <filter val="MismaLogica"/>
-        <filter val="Diferente"/>
-        <filter val="CasiIgual"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="9">
-      <filters blank="1">
-        <filter val="Checar"/>
-        <filter val="Categorizar"/>
-        <filter val="Radical"/>
-        <filter val="Acotado"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="10">
-      <filters blank="1"/>
+      <customFilters>
+        <customFilter operator="equal" val="CasiIgual"/>
+        <customFilter operator="equal" val="Diferente"/>
+      </customFilters>
     </filterColumn>
     <extLst/>
   </autoFilter>
@@ -9951,7 +9939,7 @@
   <sheetPr/>
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>

--- a/sqlserver.xlsx
+++ b/sqlserver.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="5820" windowWidth="9210" windowHeight="3840"/>
+    <workbookView windowWidth="20385" windowHeight="8355"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -2798,11 +2798,11 @@
   <dimension ref="A1:Q547"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C87" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C430" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D17" sqref="D17"/>
+      <selection pane="bottomRight" activeCell="E408" sqref="E408"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -3942,7 +3942,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="87" spans="1:10">
+    <row r="87" hidden="1" spans="1:10">
       <c r="A87" s="1" t="s">
         <v>100</v>
       </c>
@@ -4026,7 +4026,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="93" spans="1:10">
+    <row r="93" hidden="1" spans="1:10">
       <c r="A93" s="1" t="s">
         <v>107</v>
       </c>
@@ -5079,7 +5079,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="171" spans="1:10">
+    <row r="171" hidden="1" spans="1:10">
       <c r="A171" s="1" t="s">
         <v>186</v>
       </c>
@@ -5164,7 +5164,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="176" spans="1:10">
+    <row r="176" hidden="1" spans="1:10">
       <c r="A176" s="1" t="s">
         <v>192</v>
       </c>
@@ -5780,7 +5780,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="220" spans="1:10">
+    <row r="220" hidden="1" spans="1:10">
       <c r="A220" s="1" t="s">
         <v>239</v>
       </c>
@@ -5794,7 +5794,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="221" spans="1:10">
+    <row r="221" hidden="1" spans="1:10">
       <c r="A221" s="1" t="s">
         <v>243</v>
       </c>
@@ -5808,7 +5808,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="222" spans="1:10">
+    <row r="222" hidden="1" spans="1:10">
       <c r="A222" s="1" t="s">
         <v>244</v>
       </c>
@@ -5822,7 +5822,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="223" spans="1:10">
+    <row r="223" hidden="1" spans="1:10">
       <c r="A223" s="1" t="s">
         <v>245</v>
       </c>
@@ -6011,7 +6011,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="238" spans="1:10">
+    <row r="238" hidden="1" spans="1:10">
       <c r="A238" s="1" t="s">
         <v>260</v>
       </c>
@@ -7910,7 +7910,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="397" hidden="1" spans="1:10">
+    <row r="397" spans="1:10">
       <c r="A397" s="1" t="s">
         <v>420</v>
       </c>
@@ -7924,7 +7924,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="398" hidden="1" spans="1:10">
+    <row r="398" spans="1:10">
       <c r="A398" s="1" t="s">
         <v>423</v>
       </c>
@@ -7938,7 +7938,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="399" hidden="1" spans="1:10">
+    <row r="399" spans="1:10">
       <c r="A399" s="1" t="s">
         <v>425</v>
       </c>
@@ -7952,7 +7952,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="400" hidden="1" spans="1:10">
+    <row r="400" spans="1:10">
       <c r="A400" s="1" t="s">
         <v>426</v>
       </c>
@@ -7966,7 +7966,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="401" hidden="1" spans="1:10">
+    <row r="401" spans="1:10">
       <c r="A401" s="1" t="s">
         <v>427</v>
       </c>
@@ -7980,7 +7980,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="402" hidden="1" spans="1:10">
+    <row r="402" spans="1:10">
       <c r="A402" s="1" t="s">
         <v>428</v>
       </c>
@@ -8022,7 +8022,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="405" hidden="1" spans="1:10">
+    <row r="405" spans="1:10">
       <c r="A405" s="1" t="s">
         <v>432</v>
       </c>
@@ -8050,7 +8050,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="407" hidden="1" spans="1:10">
+    <row r="407" spans="1:10">
       <c r="A407" s="1" t="s">
         <v>434</v>
       </c>
@@ -8064,7 +8064,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="408" hidden="1" spans="1:10">
+    <row r="408" spans="1:10">
       <c r="A408" s="1" t="s">
         <v>435</v>
       </c>
@@ -8078,7 +8078,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="409" hidden="1" spans="1:10">
+    <row r="409" spans="1:10">
       <c r="A409" s="1" t="s">
         <v>436</v>
       </c>
@@ -8103,7 +8103,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="411" hidden="1" spans="1:10">
+    <row r="411" spans="1:10">
       <c r="A411" s="1" t="s">
         <v>438</v>
       </c>
@@ -8117,7 +8117,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="412" hidden="1" spans="1:10">
+    <row r="412" spans="1:10">
       <c r="A412" s="1" t="s">
         <v>439</v>
       </c>
@@ -8131,7 +8131,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="413" hidden="1" spans="1:10">
+    <row r="413" spans="1:10">
       <c r="A413" s="1" t="s">
         <v>440</v>
       </c>
@@ -8156,7 +8156,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="415" hidden="1" spans="1:10">
+    <row r="415" spans="1:10">
       <c r="A415" s="1" t="s">
         <v>442</v>
       </c>
@@ -8170,7 +8170,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="416" hidden="1" spans="1:10">
+    <row r="416" spans="1:10">
       <c r="A416" s="1" t="s">
         <v>443</v>
       </c>
@@ -8184,7 +8184,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="417" hidden="1" spans="1:10">
+    <row r="417" spans="1:10">
       <c r="A417" s="1" t="s">
         <v>444</v>
       </c>
@@ -8198,7 +8198,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="418" hidden="1" spans="1:10">
+    <row r="418" spans="1:10">
       <c r="A418" s="1" t="s">
         <v>445</v>
       </c>
@@ -8212,7 +8212,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="419" hidden="1" spans="1:10">
+    <row r="419" spans="1:10">
       <c r="A419" s="1" t="s">
         <v>446</v>
       </c>
@@ -8265,7 +8265,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="423" hidden="1" spans="1:10">
+    <row r="423" spans="1:10">
       <c r="A423" s="1" t="s">
         <v>450</v>
       </c>
@@ -8293,7 +8293,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="425" hidden="1" spans="1:10">
+    <row r="425" spans="1:10">
       <c r="A425" s="1" t="s">
         <v>453</v>
       </c>
@@ -8307,7 +8307,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="426" hidden="1" spans="1:10">
+    <row r="426" spans="1:10">
       <c r="A426" s="1" t="s">
         <v>454</v>
       </c>
@@ -8357,7 +8357,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="430" hidden="1" spans="1:10">
+    <row r="430" spans="1:10">
       <c r="A430" s="1" t="s">
         <v>458</v>
       </c>
@@ -8371,7 +8371,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="431" hidden="1" spans="1:10">
+    <row r="431" spans="1:10">
       <c r="A431" s="1" t="s">
         <v>459</v>
       </c>
@@ -8396,7 +8396,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="433" hidden="1" spans="1:10">
+    <row r="433" spans="1:10">
       <c r="A433" s="1" t="s">
         <v>461</v>
       </c>
@@ -8410,7 +8410,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="434" hidden="1" spans="1:10">
+    <row r="434" spans="1:10">
       <c r="A434" s="1" t="s">
         <v>462</v>
       </c>
@@ -8424,7 +8424,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="435" hidden="1" spans="1:10">
+    <row r="435" spans="1:10">
       <c r="A435" s="1" t="s">
         <v>463</v>
       </c>
@@ -8438,7 +8438,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="436" hidden="1" spans="1:10">
+    <row r="436" spans="1:10">
       <c r="A436" s="1" t="s">
         <v>464</v>
       </c>
@@ -8452,7 +8452,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="437" hidden="1" spans="1:10">
+    <row r="437" spans="1:10">
       <c r="A437" s="1" t="s">
         <v>465</v>
       </c>
@@ -8466,7 +8466,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="438" hidden="1" spans="1:10">
+    <row r="438" spans="1:10">
       <c r="A438" s="1" t="s">
         <v>466</v>
       </c>
@@ -8480,7 +8480,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="439" hidden="1" spans="1:10">
+    <row r="439" spans="1:10">
       <c r="A439" s="1" t="s">
         <v>467</v>
       </c>
@@ -8516,7 +8516,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="442" hidden="1" spans="1:10">
+    <row r="442" spans="1:10">
       <c r="A442" s="1" t="s">
         <v>470</v>
       </c>
@@ -8530,7 +8530,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="443" hidden="1" spans="1:10">
+    <row r="443" spans="1:10">
       <c r="A443" s="1" t="s">
         <v>471</v>
       </c>
@@ -8544,7 +8544,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="444" hidden="1" spans="1:10">
+    <row r="444" spans="1:10">
       <c r="A444" s="1" t="s">
         <v>472</v>
       </c>
@@ -8558,7 +8558,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="445" hidden="1" spans="1:10">
+    <row r="445" spans="1:10">
       <c r="A445" s="1" t="s">
         <v>474</v>
       </c>
@@ -8572,7 +8572,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="446" hidden="1" spans="1:10">
+    <row r="446" spans="1:10">
       <c r="A446" s="1" t="s">
         <v>475</v>
       </c>
@@ -8586,7 +8586,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="447" hidden="1" spans="1:10">
+    <row r="447" spans="1:10">
       <c r="A447" s="1" t="s">
         <v>476</v>
       </c>
@@ -8600,7 +8600,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="448" hidden="1" spans="1:10">
+    <row r="448" spans="1:10">
       <c r="A448" s="1" t="s">
         <v>477</v>
       </c>
@@ -8628,7 +8628,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="450" hidden="1" spans="1:10">
+    <row r="450" spans="1:10">
       <c r="A450" s="1" t="s">
         <v>479</v>
       </c>
@@ -8642,7 +8642,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="451" hidden="1" spans="1:10">
+    <row r="451" spans="1:10">
       <c r="A451" s="1" t="s">
         <v>480</v>
       </c>
@@ -8656,7 +8656,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="452" hidden="1" spans="1:10">
+    <row r="452" spans="1:10">
       <c r="A452" s="1" t="s">
         <v>481</v>
       </c>
@@ -8670,7 +8670,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="453" hidden="1" spans="1:10">
+    <row r="453" spans="1:10">
       <c r="A453" s="1" t="s">
         <v>482</v>
       </c>
@@ -8698,7 +8698,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="455" hidden="1" spans="1:10">
+    <row r="455" spans="1:10">
       <c r="A455" s="1" t="s">
         <v>484</v>
       </c>
@@ -8712,7 +8712,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="456" hidden="1" spans="1:10">
+    <row r="456" spans="1:10">
       <c r="A456" s="1" t="s">
         <v>485</v>
       </c>
@@ -8726,7 +8726,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="457" hidden="1" spans="1:10">
+    <row r="457" spans="1:10">
       <c r="A457" s="1" t="s">
         <v>486</v>
       </c>
@@ -8740,7 +8740,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="458" hidden="1" spans="1:10">
+    <row r="458" spans="1:10">
       <c r="A458" s="1" t="s">
         <v>487</v>
       </c>
@@ -8787,7 +8787,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="462" hidden="1" spans="1:10">
+    <row r="462" spans="1:10">
       <c r="A462" s="1" t="s">
         <v>491</v>
       </c>
@@ -8801,7 +8801,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="463" hidden="1" spans="1:10">
+    <row r="463" spans="1:10">
       <c r="A463" s="1" t="s">
         <v>492</v>
       </c>
@@ -8848,7 +8848,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="467" hidden="1" spans="1:10">
+    <row r="467" spans="1:10">
       <c r="A467" s="1" t="s">
         <v>496</v>
       </c>
@@ -8884,7 +8884,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="470" hidden="1" spans="1:10">
+    <row r="470" spans="1:10">
       <c r="A470" s="1" t="s">
         <v>499</v>
       </c>
@@ -8898,7 +8898,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="471" hidden="1" spans="1:10">
+    <row r="471" spans="1:10">
       <c r="A471" s="1" t="s">
         <v>501</v>
       </c>
@@ -8912,7 +8912,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="472" hidden="1" spans="1:10">
+    <row r="472" spans="1:10">
       <c r="A472" s="1" t="s">
         <v>502</v>
       </c>
@@ -8926,7 +8926,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="473" hidden="1" spans="1:10">
+    <row r="473" spans="1:10">
       <c r="A473" s="1" t="s">
         <v>503</v>
       </c>
@@ -8940,7 +8940,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="474" hidden="1" spans="1:10">
+    <row r="474" spans="1:10">
       <c r="A474" s="1" t="s">
         <v>504</v>
       </c>
@@ -8954,7 +8954,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="475" hidden="1" spans="1:10">
+    <row r="475" spans="1:10">
       <c r="A475" s="1" t="s">
         <v>505</v>
       </c>
@@ -8968,7 +8968,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="476" hidden="1" spans="1:10">
+    <row r="476" spans="1:10">
       <c r="A476" s="1" t="s">
         <v>506</v>
       </c>
@@ -9689,7 +9689,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="532" hidden="1" spans="1:10">
+    <row r="532" spans="1:10">
       <c r="A532" s="1" t="s">
         <v>562</v>
       </c>
@@ -9703,7 +9703,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="533" hidden="1" spans="1:10">
+    <row r="533" spans="1:10">
       <c r="A533" s="1" t="s">
         <v>563</v>
       </c>
@@ -9731,7 +9731,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="535" hidden="1" spans="1:10">
+    <row r="535" spans="1:10">
       <c r="A535" s="1" t="s">
         <v>565</v>
       </c>
@@ -9745,7 +9745,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="536" hidden="1" spans="1:10">
+    <row r="536" spans="1:10">
       <c r="A536" s="1" t="s">
         <v>566</v>
       </c>
@@ -9759,7 +9759,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="537" hidden="1" spans="1:10">
+    <row r="537" spans="1:10">
       <c r="A537" s="1" t="s">
         <v>567</v>
       </c>
@@ -9773,7 +9773,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="538" hidden="1" spans="1:10">
+    <row r="538" spans="1:10">
       <c r="A538" s="1" t="s">
         <v>568</v>
       </c>
@@ -9787,7 +9787,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="539" hidden="1" spans="1:10">
+    <row r="539" spans="1:10">
       <c r="A539" s="1" t="s">
         <v>569</v>
       </c>
@@ -9801,7 +9801,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="540" hidden="1" spans="1:10">
+    <row r="540" spans="1:10">
       <c r="A540" s="1" t="s">
         <v>570</v>
       </c>
@@ -9815,7 +9815,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="541" hidden="1" spans="1:10">
+    <row r="541" spans="1:10">
       <c r="A541" s="1" t="s">
         <v>571</v>
       </c>
@@ -9829,7 +9829,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="542" hidden="1" spans="1:10">
+    <row r="542" spans="1:10">
       <c r="A542" s="1" t="s">
         <v>572</v>
       </c>
@@ -9843,7 +9843,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="543" hidden="1" spans="1:10">
+    <row r="543" spans="1:10">
       <c r="A543" s="1" t="s">
         <v>573</v>
       </c>
@@ -9857,7 +9857,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="544" hidden="1" spans="1:10">
+    <row r="544" spans="1:10">
       <c r="A544" s="1" t="s">
         <v>574</v>
       </c>
@@ -9871,7 +9871,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="545" hidden="1" spans="1:10">
+    <row r="545" spans="1:10">
       <c r="A545" s="1" t="s">
         <v>575</v>
       </c>
@@ -9885,7 +9885,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="546" hidden="1" spans="1:10">
+    <row r="546" spans="1:10">
       <c r="A546" s="1" t="s">
         <v>576</v>
       </c>
@@ -9914,8 +9914,7 @@
   <autoFilter ref="A1:K547">
     <filterColumn colId="1">
       <customFilters>
-        <customFilter operator="equal" val="UserDefinedFunction"/>
-        <customFilter operator="equal" val="View"/>
+        <customFilter operator="equal" val="StoredProcedure"/>
       </customFilters>
     </filterColumn>
     <filterColumn colId="2">
